--- a/Project-KTXForecasting/Result/Forecasting_2DFUTR5Lag12_경전선.xlsx
+++ b/Project-KTXForecasting/Result/Forecasting_2DFUTR5Lag12_경전선.xlsx
@@ -45,6 +45,9 @@
     <t>NBEATSx</t>
   </si>
   <si>
+    <t>NHITS</t>
+  </si>
+  <si>
     <t>NBEATS</t>
   </si>
   <si>
@@ -79,9 +82,6 @@
   </si>
   <si>
     <t>MLP</t>
-  </si>
-  <si>
-    <t>NHITS</t>
   </si>
   <si>
     <t>unique_id</t>
@@ -514,25 +514,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>46257337432.96484</v>
+        <v>48611187949.58627</v>
       </c>
       <c r="C3">
-        <v>215075.1901846534</v>
+        <v>220479.450175263</v>
       </c>
       <c r="D3">
-        <v>0.02567553055884656</v>
+        <v>0.0246091358842824</v>
       </c>
       <c r="E3">
-        <v>96545.47916666667</v>
+        <v>82719.06770833333</v>
       </c>
       <c r="F3">
-        <v>0.09550584918001882</v>
+        <v>0.07258250141531843</v>
       </c>
       <c r="G3">
-        <v>45273.65625</v>
+        <v>23424.78125</v>
       </c>
       <c r="H3">
-        <v>0.06553112948134837</v>
+        <v>0.03605789795969449</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -540,25 +540,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>47817281716.04264</v>
+        <v>46257337432.96484</v>
       </c>
       <c r="C4">
-        <v>218671.6298838115</v>
+        <v>215075.1901846534</v>
       </c>
       <c r="D4">
-        <v>0.02887658673285863</v>
+        <v>0.02567553055884656</v>
       </c>
       <c r="E4">
-        <v>108875.359375</v>
+        <v>96545.47916666667</v>
       </c>
       <c r="F4">
-        <v>0.1129731255825368</v>
+        <v>0.09550584918001882</v>
       </c>
       <c r="G4">
-        <v>42426.46875</v>
+        <v>45273.65625</v>
       </c>
       <c r="H4">
-        <v>0.06344072155848945</v>
+        <v>0.06553112948134837</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -566,25 +566,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>52834411215.986</v>
+        <v>47817281716.04264</v>
       </c>
       <c r="C5">
-        <v>229857.3714632315</v>
+        <v>218671.6298838115</v>
       </c>
       <c r="D5">
-        <v>0.03220419816390466</v>
+        <v>0.02887658673285863</v>
       </c>
       <c r="E5">
-        <v>114170.0364583333</v>
+        <v>108875.359375</v>
       </c>
       <c r="F5">
-        <v>0.1178366162122873</v>
+        <v>0.1129731255825368</v>
       </c>
       <c r="G5">
-        <v>64813.09375</v>
+        <v>42426.46875</v>
       </c>
       <c r="H5">
-        <v>0.09640053417762623</v>
+        <v>0.06344072155848945</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -592,25 +592,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>50507231979.11239</v>
+        <v>52834411215.986</v>
       </c>
       <c r="C6">
-        <v>224738.1409087304</v>
+        <v>229857.3714632315</v>
       </c>
       <c r="D6">
-        <v>0.03744948609034456</v>
+        <v>0.03220419816390466</v>
       </c>
       <c r="E6">
-        <v>128573.4609375</v>
+        <v>114170.0364583333</v>
       </c>
       <c r="F6">
-        <v>0.1427394384626549</v>
+        <v>0.1178366162122873</v>
       </c>
       <c r="G6">
-        <v>64864.34375</v>
+        <v>64813.09375</v>
       </c>
       <c r="H6">
-        <v>0.09475823971891167</v>
+        <v>0.09640053417762623</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -618,25 +618,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>56051220682.94116</v>
+        <v>50507231979.11239</v>
       </c>
       <c r="C7">
-        <v>236751.3900338098</v>
+        <v>224738.1409087304</v>
       </c>
       <c r="D7">
-        <v>0.04188252725060174</v>
+        <v>0.03744948609034456</v>
       </c>
       <c r="E7">
-        <v>136871.9765625</v>
+        <v>128573.4609375</v>
       </c>
       <c r="F7">
-        <v>0.1525624411513007</v>
+        <v>0.1427394384626549</v>
       </c>
       <c r="G7">
-        <v>63363.78125</v>
+        <v>64864.34375</v>
       </c>
       <c r="H7">
-        <v>0.09370160238328913</v>
+        <v>0.09475823971891167</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -644,25 +644,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>55347280822.61752</v>
+        <v>56051220682.94116</v>
       </c>
       <c r="C8">
-        <v>235260.0281021353</v>
+        <v>236751.3900338098</v>
       </c>
       <c r="D8">
-        <v>0.03817918914916549</v>
+        <v>0.04188252725060174</v>
       </c>
       <c r="E8">
-        <v>135580.5677083333</v>
+        <v>136871.9765625</v>
       </c>
       <c r="F8">
-        <v>0.1501426869963469</v>
+        <v>0.1525624411513007</v>
       </c>
       <c r="G8">
-        <v>71272.9375</v>
+        <v>63363.78125</v>
       </c>
       <c r="H8">
-        <v>0.1018638316168881</v>
+        <v>0.09370160238328913</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -670,25 +670,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>84561012723.44664</v>
+        <v>55347280822.61752</v>
       </c>
       <c r="C9">
-        <v>290793.7632127736</v>
+        <v>235260.0281021353</v>
       </c>
       <c r="D9">
-        <v>0.1098967670031455</v>
+        <v>0.03817918914916549</v>
       </c>
       <c r="E9">
-        <v>208082.2877604167</v>
+        <v>135580.5677083333</v>
       </c>
       <c r="F9">
-        <v>0.2594336073146015</v>
+        <v>0.1501426869963469</v>
       </c>
       <c r="G9">
-        <v>101905.3125</v>
+        <v>71272.9375</v>
       </c>
       <c r="H9">
-        <v>0.1488504410548405</v>
+        <v>0.1018638316168881</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -696,25 +696,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>118329284004.273</v>
+        <v>84561012723.44664</v>
       </c>
       <c r="C10">
-        <v>343990.238239798</v>
+        <v>290793.7632127736</v>
       </c>
       <c r="D10">
-        <v>0.1275784480589766</v>
+        <v>0.1098967670031455</v>
       </c>
       <c r="E10">
-        <v>273912.7304603855</v>
+        <v>208082.2877604167</v>
       </c>
       <c r="F10">
-        <v>0.3412464509973022</v>
+        <v>0.2594336073146015</v>
       </c>
       <c r="G10">
-        <v>216829.8797283825</v>
+        <v>101905.3125</v>
       </c>
       <c r="H10">
-        <v>0.3302046113682965</v>
+        <v>0.1488504410548405</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -722,25 +722,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>112067911245.0589</v>
+        <v>118329284004.273</v>
       </c>
       <c r="C11">
-        <v>334765.4570666736</v>
+        <v>343990.238239798</v>
       </c>
       <c r="D11">
-        <v>0.1268296072958327</v>
+        <v>0.1275784480589766</v>
       </c>
       <c r="E11">
-        <v>271566.5085520134</v>
+        <v>273912.7304603855</v>
       </c>
       <c r="F11">
-        <v>0.3409647175966923</v>
+        <v>0.3412464509973022</v>
       </c>
       <c r="G11">
-        <v>223822.9561651127</v>
+        <v>216829.8797283825</v>
       </c>
       <c r="H11">
-        <v>0.3345480647399802</v>
+        <v>0.3302046113682965</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -748,25 +748,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>114098705185.0653</v>
+        <v>112067911245.0589</v>
       </c>
       <c r="C12">
-        <v>337784.9984606559</v>
+        <v>334765.4570666736</v>
       </c>
       <c r="D12">
-        <v>0.1318636396765149</v>
+        <v>0.1268296072958327</v>
       </c>
       <c r="E12">
-        <v>275585.3734679117</v>
+        <v>271566.5085520134</v>
       </c>
       <c r="F12">
-        <v>0.3470396509372407</v>
+        <v>0.3409647175966923</v>
       </c>
       <c r="G12">
-        <v>226621.1717425784</v>
+        <v>223822.9561651127</v>
       </c>
       <c r="H12">
-        <v>0.3447091304801825</v>
+        <v>0.3345480647399802</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -774,25 +774,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>114852611628.3062</v>
+        <v>114098705185.0653</v>
       </c>
       <c r="C13">
-        <v>338899.1171843121</v>
+        <v>337784.9984606559</v>
       </c>
       <c r="D13">
-        <v>0.1334374641624078</v>
+        <v>0.1318636396765149</v>
       </c>
       <c r="E13">
-        <v>276594.8645833333</v>
+        <v>275585.3734679117</v>
       </c>
       <c r="F13">
-        <v>0.3485804395465824</v>
+        <v>0.3470396509372407</v>
       </c>
       <c r="G13">
-        <v>226919.25</v>
+        <v>226621.1717425784</v>
       </c>
       <c r="H13">
-        <v>0.3451630059656886</v>
+        <v>0.3447091304801825</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -800,25 +800,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>426979859582.5586</v>
+        <v>114852611628.3062</v>
       </c>
       <c r="C14">
-        <v>653436.9591495101</v>
+        <v>338899.1171843121</v>
       </c>
       <c r="D14">
-        <v>0.7512936293396212</v>
+        <v>0.1334374641624078</v>
       </c>
       <c r="E14">
-        <v>556909.0558268229</v>
+        <v>276594.8645833333</v>
       </c>
       <c r="F14">
-        <v>0.7490788983516171</v>
+        <v>0.3485804395465824</v>
       </c>
       <c r="G14">
-        <v>586624.046875</v>
+        <v>226919.25</v>
       </c>
       <c r="H14">
-        <v>0.7870429501702974</v>
+        <v>0.3451630059656886</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -826,25 +826,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>6031135327556556</v>
+        <v>426979859582.5586</v>
       </c>
       <c r="C15">
-        <v>77660384.54422277</v>
+        <v>653436.9591495101</v>
       </c>
       <c r="D15">
-        <v>12314.19537404962</v>
+        <v>0.7512936293396212</v>
       </c>
       <c r="E15">
-        <v>77633694.91666667</v>
+        <v>556909.0558268229</v>
       </c>
       <c r="F15">
-        <v>109.5548553084034</v>
+        <v>0.7490788983516171</v>
       </c>
       <c r="G15">
-        <v>77064886.5</v>
+        <v>586624.046875</v>
       </c>
       <c r="H15">
-        <v>113.4037233731116</v>
+        <v>0.7870429501702974</v>
       </c>
     </row>
   </sheetData>
@@ -927,43 +927,43 @@
         <v>673042</v>
       </c>
       <c r="E2">
+        <v>673193.0625</v>
+      </c>
+      <c r="F2">
         <v>736484.0625</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>644118.125</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>719597</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>671030.4375</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>662325.6875</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>632414.875</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>693360.8125</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>484619.8375782663</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>502502.6361421357</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>500195.3240577955</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>500206.03125</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>818041.3125</v>
-      </c>
-      <c r="Q2">
-        <v>77220080</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -980,43 +980,43 @@
         <v>673039.3125</v>
       </c>
       <c r="E3">
+        <v>673171.75</v>
+      </c>
+      <c r="F3">
         <v>701859.25</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>702327.4375</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>666948.875</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>717423.5</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>680720</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>668917.5</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>711101.4375</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>474485.7616965534</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>523583.3565000001</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>525985.4958572285</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>525370.875</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>340913.96875</v>
-      </c>
-      <c r="Q3">
-        <v>76856496</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1033,43 +1033,43 @@
         <v>673035.1875</v>
       </c>
       <c r="E4">
+        <v>673123.6875</v>
+      </c>
+      <c r="F4">
         <v>678896.3125</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>586184.75</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>677804.4375</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>592097.5</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>584699.125</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>578063.375</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>639699.8125</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>443352.6358144153</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>450876.1125627705</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>460413.8999973573</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>454283.875</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>-137411.46875</v>
-      </c>
-      <c r="Q4">
-        <v>76080856</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1086,43 +1086,43 @@
         <v>673038.875</v>
       </c>
       <c r="E5">
+        <v>673180.375</v>
+      </c>
+      <c r="F5">
         <v>683958.5</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>624973.875</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>662157.625</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>611971.5</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>610744.125</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>601060.4375</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>573386.4375</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>473870.1954064946</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>421270.9751070041</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>408418.5835899569</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>406705.875</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>10374.966796875</v>
-      </c>
-      <c r="Q5">
-        <v>75987048</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1139,43 +1139,43 @@
         <v>673039.875</v>
       </c>
       <c r="E6">
+        <v>673181.8125</v>
+      </c>
+      <c r="F6">
         <v>683603</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>593629.375</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>599932</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>624251.875</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>576063.5</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>537247.0625</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>578235.1875</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>435829.6047288198</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>434004.2910646123</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>430355.8282574216</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>430057.75</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>207230.03125</v>
-      </c>
-      <c r="Q6">
-        <v>76889560</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1192,43 +1192,43 @@
         <v>673045.8125</v>
       </c>
       <c r="E7">
+        <v>673209.1875</v>
+      </c>
+      <c r="F7">
         <v>707643.25</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>607762.9375</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>647340.125</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>593117.75</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>600945.1875</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>595137.5</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>571183.9375</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>490403.2455924833</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>513811.7120000001</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>523430.2140426981</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>523300.96875</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>226665</v>
-      </c>
-      <c r="Q7">
-        <v>77590016</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1245,43 +1245,43 @@
         <v>673046.125</v>
       </c>
       <c r="E8">
+        <v>673221.375</v>
+      </c>
+      <c r="F8">
         <v>732002.1875</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>683278.125</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>665612.125</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>664118.75</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>657956.75</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>647317.9375</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>624147.5</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>534265.4827156698</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>534541.0688134922</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>539725.1035150284</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>551939.3125</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>134711.90625</v>
-      </c>
-      <c r="Q8">
-        <v>77904704</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1298,43 +1298,43 @@
         <v>673043.3125</v>
       </c>
       <c r="E9">
+        <v>673210.9375</v>
+      </c>
+      <c r="F9">
         <v>740693.75</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>657567</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>793293.6875</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>656128.75</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>646450.375</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>649325.375</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>577039.875</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>482086.9557240944</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>507739.5357481962</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>507068.4433620722</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>506478.625</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>584376.375</v>
-      </c>
-      <c r="Q9">
-        <v>78415136</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1351,43 +1351,43 @@
         <v>673039.4375</v>
       </c>
       <c r="E10">
+        <v>673215.75</v>
+      </c>
+      <c r="F10">
         <v>739158.75</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>678520</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>828721.3125</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>639282.5625</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>658810.25</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>637842.375</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>529673</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>458238.9069518155</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>437567.6105714286</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>432748.7032116181</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>431928.5625</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>54596.26953125</v>
-      </c>
-      <c r="Q10">
-        <v>79425904</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1404,43 +1404,43 @@
         <v>673042.1875</v>
       </c>
       <c r="E11">
+        <v>673207</v>
+      </c>
+      <c r="F11">
         <v>724497.875</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>617531.5625</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>580709.8125</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>563434.875</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>576679.6875</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>571500.1875</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>350399.125</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>435829.6047288198</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>434004.2910646123</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>430355.8282574216</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>430057.75</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>1235602</v>
-      </c>
-      <c r="Q11">
-        <v>80461344</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1457,43 +1457,43 @@
         <v>673042.1875</v>
       </c>
       <c r="E12">
+        <v>673208.625</v>
+      </c>
+      <c r="F12">
         <v>721966.1875</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>631404.5</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>596728.6875</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>544384.8125</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>534438.625</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>614894.875</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>254305.859375</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>444663.0965861261</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>446569.6972301587</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>404366.3910248426</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>391440.4375</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>636677.875</v>
-      </c>
-      <c r="Q12">
-        <v>81584992</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1510,43 +1510,43 @@
         <v>673041.875</v>
       </c>
       <c r="E13">
+        <v>673222.75</v>
+      </c>
+      <c r="F13">
         <v>749454.125</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>569035</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>635857</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>482713.15625</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>470539.96875</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>542148.6875</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>312742.1875</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>458238.9069518155</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>437567.6105714286</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>432748.7032116181</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>431928.5625</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-450865.28125</v>
-      </c>
-      <c r="Q13">
-        <v>82091040</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1563,43 +1563,43 @@
         <v>673042.25</v>
       </c>
       <c r="E14">
+        <v>673228.3125</v>
+      </c>
+      <c r="F14">
         <v>783607.125</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>635577.9375</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>633289.875</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>498378.96875</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>491994.0625</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>587126.125</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>253854.4375</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>408242.086760533</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>389911.5821725497</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>389295.1213316664</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>390216.875</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>125951.953125</v>
-      </c>
-      <c r="Q14">
-        <v>79261992</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1616,43 +1616,43 @@
         <v>673043.1875</v>
       </c>
       <c r="E15">
+        <v>673224.8125</v>
+      </c>
+      <c r="F15">
         <v>798869.5</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>705284.3125</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>565703.875</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>575605.75</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>493604.25</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>672256</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>328403.6875</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>534265.4827156698</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>555700.1615396827</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>538179.1543448361</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>551820.1875</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>47817.21875</v>
-      </c>
-      <c r="Q15">
-        <v>78239928</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1669,43 +1669,43 @@
         <v>673042.1875</v>
       </c>
       <c r="E16">
+        <v>673235.375</v>
+      </c>
+      <c r="F16">
         <v>791261</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>542576.625</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>581130.1875</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>425775.5625</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>436986.15625</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>523246.0625</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>297096.1875</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>461136.6733695357</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>508919.1967619046</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>512427.2157162123</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>514065.4375</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-534142.5625</v>
-      </c>
-      <c r="Q16">
-        <v>94685296</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1722,43 +1722,43 @@
         <v>673040.1875</v>
       </c>
       <c r="E17">
+        <v>673270.6875</v>
+      </c>
+      <c r="F17">
         <v>781742.25</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>491973.21875</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>591895.625</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>445148.9375</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>379187.6875</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>552397.375</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>346753.1875</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>482823.809862848</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>518166.6828374126</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>532127.5584688272</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>536309.8125</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>33534.32421875</v>
-      </c>
-      <c r="Q17">
-        <v>110595744</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1775,43 +1775,43 @@
         <v>673041.875</v>
       </c>
       <c r="E18">
+        <v>673276.8125</v>
+      </c>
+      <c r="F18">
         <v>771656.5</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>460575.4375</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>485764.6875</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>444986.625</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>441943.8125</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>544485.875</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>378661.96875</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>457868.904975687</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>488963.6522812466</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>489948.1113222188</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>489894.8125</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>227300.171875</v>
-      </c>
-      <c r="Q18">
-        <v>109922144</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1828,43 +1828,43 @@
         <v>673042.4375</v>
       </c>
       <c r="E19">
+        <v>673277.1875</v>
+      </c>
+      <c r="F19">
         <v>791282.8125</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>426555.28125</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>478464.78125</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>466376.1875</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>403478.40625</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>530370.875</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>363154.8125</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>504442.8176052421</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>531509.3658333332</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>537685.8704233209</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>538237.625</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-193859.828125</v>
-      </c>
-      <c r="Q19">
-        <v>109248528</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1881,43 +1881,43 @@
         <v>673040.625</v>
       </c>
       <c r="E20">
+        <v>673260.1875</v>
+      </c>
+      <c r="F20">
         <v>821463.875</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>412891.5</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>657013.375</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>429999.46875</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>432522.9375</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>529954.4375</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>414262.1875</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>474485.7616965534</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>546131.8030396826</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>560751.4717867366</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>562508.625</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>156011.90625</v>
-      </c>
-      <c r="Q20">
-        <v>108680440</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1934,43 +1934,43 @@
         <v>673040.0625</v>
       </c>
       <c r="E21">
+        <v>673260.4375</v>
+      </c>
+      <c r="F21">
         <v>843247.75</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>301822.4375</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>445469.84375</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>376339.09375</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>415430.90625</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>432117.34375</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>329930.875</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>484619.8375782663</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>502502.6361421357</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>500195.3240577955</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>500206.03125</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>1209013.5</v>
-      </c>
-      <c r="Q21">
-        <v>108115760</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1987,43 +1987,43 @@
         <v>673042.75</v>
       </c>
       <c r="E22">
+        <v>673275.375</v>
+      </c>
+      <c r="F22">
         <v>847031.75</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>437287.84375</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>728677.8125</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>485052.84375</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>481750.40625</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>509516</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>360273.4375</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>471483.9814730076</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>463560.9990126262</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>458466.6882309798</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>458362.09375</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>-147448.484375</v>
-      </c>
-      <c r="Q22">
-        <v>110161568</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2040,43 +2040,43 @@
         <v>673040.875</v>
       </c>
       <c r="E23">
+        <v>673276.8125</v>
+      </c>
+      <c r="F23">
         <v>853233.875</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>482260.9375</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>533624.75</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>505070.84375</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>487938.9375</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>501856.1875</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>387024.125</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>534265.4827156698</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>566360.1571111111</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>567127.4697153691</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>566717.375</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>67139.5703125</v>
-      </c>
-      <c r="Q23">
-        <v>112477424</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2093,43 +2093,43 @@
         <v>673042.0625</v>
       </c>
       <c r="E24">
+        <v>673267.0625</v>
+      </c>
+      <c r="F24">
         <v>867088.8125</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>247141.796875</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>629500.8125</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>296175.75</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>309650.9375</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>305112.75</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>299059.6875</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>481534.3505741027</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>530909.5446666667</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>539566.8983142186</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>539874.5625</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>15944.5849609375</v>
-      </c>
-      <c r="Q24">
-        <v>110528192</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2146,43 +2146,43 @@
         <v>673042.5625</v>
       </c>
       <c r="E25">
+        <v>673281.0625</v>
+      </c>
+      <c r="F25">
         <v>896171.375</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>144100.59375</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>755823.625</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>210060.046875</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>235805.703125</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>248503.1875</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>278612.71875</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>506587.7888559366</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>514627.7485000001</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>523824.0824949865</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>524325.0625</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>-36714.8671875</v>
-      </c>
-      <c r="Q25">
-        <v>107789160</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2199,43 +2199,43 @@
         <v>673042.75</v>
       </c>
       <c r="E26">
+        <v>673299.6875</v>
+      </c>
+      <c r="F26">
         <v>905652.4375</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>192882.546875</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>676161.4375</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>245159.875</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>215787.1875</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>276807.5</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>296002.6875</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>482086.9557240944</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>507739.5357481962</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>507068.4433620722</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>506478.625</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1387760.75</v>
-      </c>
-      <c r="Q26">
-        <v>109031144</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2252,43 +2252,43 @@
         <v>673040.9375</v>
       </c>
       <c r="E27">
+        <v>673300.5625</v>
+      </c>
+      <c r="F27">
         <v>909658.5</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>289527.8125</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>829232.4375</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>422082.28125</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>381884.59375</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>377837.75</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>407432.15625</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>506587.7888559366</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>466775.3456666667</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>443492.987141165</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>437499.75</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>2279894.75</v>
-      </c>
-      <c r="Q27">
-        <v>111387792</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2305,43 +2305,43 @@
         <v>673041.5</v>
       </c>
       <c r="E28">
+        <v>673378.6875</v>
+      </c>
+      <c r="F28">
         <v>929042.5</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>306096.9375</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>565252.4375</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>398538.3125</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>388852.6875</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>310238.8125</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>343572.9375</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>443352.6358144153</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>450876.1125627705</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>460413.8999973573</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>454283.875</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>998920.875</v>
-      </c>
-      <c r="Q28">
-        <v>112171376</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2358,43 +2358,43 @@
         <v>673042.125</v>
       </c>
       <c r="E29">
+        <v>673367.5</v>
+      </c>
+      <c r="F29">
         <v>907766.1875</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>411071.8125</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>755780.375</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>441044.625</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>432504.625</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>355647.25</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>439380.65625</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>482823.809862848</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>518166.6828374126</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>532127.5584688272</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>536309.8125</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>2150070.25</v>
-      </c>
-      <c r="Q29">
-        <v>112339296</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2411,43 +2411,43 @@
         <v>673043.6875</v>
       </c>
       <c r="E30">
+        <v>673371.875</v>
+      </c>
+      <c r="F30">
         <v>918895.75</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>367873.9375</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>758323.9375</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>423749.0625</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>366817.9375</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>293448.75</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>388156.875</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>458238.9069518155</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>437567.6105714286</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>432748.7032116181</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>431928.5625</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>2322319</v>
-      </c>
-      <c r="Q30">
-        <v>111072928</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2464,43 +2464,43 @@
         <v>673041.25</v>
       </c>
       <c r="E31">
+        <v>673373.8125</v>
+      </c>
+      <c r="F31">
         <v>933487.75</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>291370.3125</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>582078.3125</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>340579.71875</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>304984.8125</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>175615.0625</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>339481.6875</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>482086.9557240944</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>507739.5357481962</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>507068.4433620722</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>506478.625</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>4398287</v>
-      </c>
-      <c r="Q31">
-        <v>109055240</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2517,43 +2517,43 @@
         <v>673042.125</v>
       </c>
       <c r="E32">
+        <v>673353.125</v>
+      </c>
+      <c r="F32">
         <v>927315.625</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>432123.21875</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>748836.5625</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>464268.28125</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>439333.8125</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>343998.34375</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>411694</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>534265.4827156698</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>566360.1571111111</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>567127.4697153691</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>566717.375</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>4194003</v>
-      </c>
-      <c r="Q32">
-        <v>108127256</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2570,43 +2570,43 @@
         <v>673042.375</v>
       </c>
       <c r="E33">
+        <v>673362.0625</v>
+      </c>
+      <c r="F33">
         <v>914967.4375</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>451010.15625</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>589107.1875</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>530616.875</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>513397.375</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>408388.96875</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>493980.34375</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>484619.8375782663</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>502502.6361421357</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>500195.3240577955</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>500206.03125</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>6472980</v>
-      </c>
-      <c r="Q33">
-        <v>107944896</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2623,43 +2623,43 @@
         <v>673042.1875</v>
       </c>
       <c r="E34">
+        <v>673361.375</v>
+      </c>
+      <c r="F34">
         <v>940858.875</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>360837.71875</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>572830.875</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>449562.8125</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>404840.625</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>213246.921875</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>515093.1875</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>435829.6047288198</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>434004.2910646123</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>430355.8282574216</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>430057.75</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>10490070</v>
-      </c>
-      <c r="Q34">
-        <v>107859408</v>
       </c>
     </row>
   </sheetData>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>9741637815.572205</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>9266207651.418131</v>
@@ -2752,7 +2752,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>10088563383.23966</v>
@@ -2778,59 +2778,59 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>10086550326.51034</v>
+        <v>10093463823.0568</v>
       </c>
       <c r="C5">
-        <v>100431.8192930425</v>
+        <v>100466.2322527167</v>
       </c>
       <c r="D5">
-        <v>0.02807217295519885</v>
+        <v>0.0280928138213464</v>
       </c>
       <c r="E5">
-        <v>52880.91927083334</v>
+        <v>52902.92708333334</v>
       </c>
       <c r="F5">
-        <v>0.1109659562022838</v>
+        <v>0.1110135873257389</v>
       </c>
       <c r="G5">
-        <v>29434.015625</v>
+        <v>29425.421875</v>
       </c>
       <c r="H5">
-        <v>0.09296392957550365</v>
+        <v>0.09293675515807746</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>10093463823.0568</v>
+        <v>10098657458.17383</v>
       </c>
       <c r="C6">
-        <v>100466.2322527167</v>
+        <v>100492.0765939973</v>
       </c>
       <c r="D6">
-        <v>0.0280928138213464</v>
+        <v>0.02810247612444116</v>
       </c>
       <c r="E6">
-        <v>52902.92708333334</v>
+        <v>52901.69270833334</v>
       </c>
       <c r="F6">
-        <v>0.1110135873257389</v>
+        <v>0.1110164509977512</v>
       </c>
       <c r="G6">
-        <v>29425.421875</v>
+        <v>29519.921875</v>
       </c>
       <c r="H6">
-        <v>0.09293675515807746</v>
+        <v>0.09323520284951305</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>10637545631.36564</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>11065706307.95599</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>11519519523.03223</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>14904868884.98114</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>31561113688.08141</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>30356766800.84566</v>
@@ -2986,7 +2986,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>31792249952.18289</v>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>32967220490.88015</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>154733909868.3808</v>
@@ -3086,46 +3086,46 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3148,10 +3148,10 @@
         <v>357769.375</v>
       </c>
       <c r="G2">
-        <v>346024.0625</v>
+        <v>345928.65625</v>
       </c>
       <c r="H2">
-        <v>345928.65625</v>
+        <v>346053.25</v>
       </c>
       <c r="I2">
         <v>377809.75</v>
@@ -3201,10 +3201,10 @@
         <v>340299.28125</v>
       </c>
       <c r="G3">
-        <v>346029.75</v>
+        <v>345922.46875</v>
       </c>
       <c r="H3">
-        <v>345922.46875</v>
+        <v>345788.375</v>
       </c>
       <c r="I3">
         <v>345876.8125</v>
@@ -3254,10 +3254,10 @@
         <v>320275.25</v>
       </c>
       <c r="G4">
-        <v>346042.5625</v>
+        <v>345987.6875</v>
       </c>
       <c r="H4">
-        <v>345987.6875</v>
+        <v>346059.3125</v>
       </c>
       <c r="I4">
         <v>358072.875</v>
@@ -3307,10 +3307,10 @@
         <v>319682.875</v>
       </c>
       <c r="G5">
-        <v>346049.375</v>
+        <v>345995.71875</v>
       </c>
       <c r="H5">
-        <v>345995.71875</v>
+        <v>346087.71875</v>
       </c>
       <c r="I5">
         <v>355169.71875</v>
@@ -3360,10 +3360,10 @@
         <v>268844.5</v>
       </c>
       <c r="G6">
-        <v>346049.15625</v>
+        <v>346010.21875</v>
       </c>
       <c r="H6">
-        <v>346010.21875</v>
+        <v>346086.5</v>
       </c>
       <c r="I6">
         <v>277192.375</v>
@@ -3413,10 +3413,10 @@
         <v>334035.34375</v>
       </c>
       <c r="G7">
-        <v>346048.28125</v>
+        <v>346017.4375</v>
       </c>
       <c r="H7">
-        <v>346017.4375</v>
+        <v>346113.4375</v>
       </c>
       <c r="I7">
         <v>371439.625</v>
@@ -3466,10 +3466,10 @@
         <v>350269.28125</v>
       </c>
       <c r="G8">
-        <v>346046.21875</v>
+        <v>346009.46875</v>
       </c>
       <c r="H8">
-        <v>346009.46875</v>
+        <v>346099.5625</v>
       </c>
       <c r="I8">
         <v>351376.21875</v>
@@ -3519,10 +3519,10 @@
         <v>335904.4375</v>
       </c>
       <c r="G9">
-        <v>346047.03125</v>
+        <v>346003.5625</v>
       </c>
       <c r="H9">
-        <v>346003.5625</v>
+        <v>346088.875</v>
       </c>
       <c r="I9">
         <v>427051.59375</v>
@@ -3572,10 +3572,10 @@
         <v>384332.4375</v>
       </c>
       <c r="G10">
-        <v>346051.28125</v>
+        <v>346017.0625</v>
       </c>
       <c r="H10">
-        <v>346017.0625</v>
+        <v>346119.84375</v>
       </c>
       <c r="I10">
         <v>472652.75</v>
@@ -3625,10 +3625,10 @@
         <v>295799.0625</v>
       </c>
       <c r="G11">
-        <v>346054.21875</v>
+        <v>346077.4375</v>
       </c>
       <c r="H11">
-        <v>346077.4375</v>
+        <v>346192.59375</v>
       </c>
       <c r="I11">
         <v>287163.5625</v>
@@ -3678,10 +3678,10 @@
         <v>293574.84375</v>
       </c>
       <c r="G12">
-        <v>346054.875</v>
+        <v>346076.625</v>
       </c>
       <c r="H12">
-        <v>346076.625</v>
+        <v>346189.34375</v>
       </c>
       <c r="I12">
         <v>267079.96875</v>
@@ -3731,10 +3731,10 @@
         <v>357886.53125</v>
       </c>
       <c r="G13">
-        <v>346054.34375</v>
+        <v>346081.34375</v>
       </c>
       <c r="H13">
-        <v>346081.34375</v>
+        <v>346207.25</v>
       </c>
       <c r="I13">
         <v>341395.09375</v>
@@ -3784,10 +3784,10 @@
         <v>328366.25</v>
       </c>
       <c r="G14">
-        <v>346049.71875</v>
+        <v>346075.96875</v>
       </c>
       <c r="H14">
-        <v>346075.96875</v>
+        <v>346196.09375</v>
       </c>
       <c r="I14">
         <v>351227.6875</v>
@@ -3837,10 +3837,10 @@
         <v>311237.09375</v>
       </c>
       <c r="G15">
-        <v>346047.21875</v>
+        <v>346073.90625</v>
       </c>
       <c r="H15">
-        <v>346073.90625</v>
+        <v>346270.8125</v>
       </c>
       <c r="I15">
         <v>301151.125</v>
@@ -3890,10 +3890,10 @@
         <v>276659.78125</v>
       </c>
       <c r="G16">
-        <v>346049.1875</v>
+        <v>346074.40625</v>
       </c>
       <c r="H16">
-        <v>346074.40625</v>
+        <v>346259.5</v>
       </c>
       <c r="I16">
         <v>308800.6875</v>
@@ -3943,10 +3943,10 @@
         <v>251892.0625</v>
       </c>
       <c r="G17">
-        <v>346054.96875</v>
+        <v>346078.625</v>
       </c>
       <c r="H17">
-        <v>346078.625</v>
+        <v>346272.21875</v>
       </c>
       <c r="I17">
         <v>278785.84375</v>
@@ -3996,10 +3996,10 @@
         <v>285856.875</v>
       </c>
       <c r="G18">
-        <v>346051.28125</v>
+        <v>346074.0625</v>
       </c>
       <c r="H18">
-        <v>346074.0625</v>
+        <v>346335.40625</v>
       </c>
       <c r="I18">
         <v>212473.671875</v>
@@ -4049,10 +4049,10 @@
         <v>280093.53125</v>
       </c>
       <c r="G19">
-        <v>346048.09375</v>
+        <v>346075.375</v>
       </c>
       <c r="H19">
-        <v>346075.375</v>
+        <v>346331.71875</v>
       </c>
       <c r="I19">
         <v>248837.671875</v>
@@ -4102,10 +4102,10 @@
         <v>251189.671875</v>
       </c>
       <c r="G20">
-        <v>346047.40625</v>
+        <v>346079.5625</v>
       </c>
       <c r="H20">
-        <v>346079.5625</v>
+        <v>346329.21875</v>
       </c>
       <c r="I20">
         <v>299450.8125</v>
@@ -4155,10 +4155,10 @@
         <v>304250.0625</v>
       </c>
       <c r="G21">
-        <v>346047.5625</v>
+        <v>346067.6875</v>
       </c>
       <c r="H21">
-        <v>346067.6875</v>
+        <v>346344.09375</v>
       </c>
       <c r="I21">
         <v>242367.046875</v>
@@ -4208,10 +4208,10 @@
         <v>299622.6875</v>
       </c>
       <c r="G22">
-        <v>346051.5</v>
+        <v>346081.5625</v>
       </c>
       <c r="H22">
-        <v>346081.5625</v>
+        <v>346337.21875</v>
       </c>
       <c r="I22">
         <v>375915.8125</v>
@@ -4261,10 +4261,10 @@
         <v>191123.234375</v>
       </c>
       <c r="G23">
-        <v>346057.0625</v>
+        <v>346079.21875</v>
       </c>
       <c r="H23">
-        <v>346079.21875</v>
+        <v>346342.59375</v>
       </c>
       <c r="I23">
         <v>251445.109375</v>
@@ -4314,10 +4314,10 @@
         <v>162604.34375</v>
       </c>
       <c r="G24">
-        <v>346051.6875</v>
+        <v>346078.21875</v>
       </c>
       <c r="H24">
-        <v>346078.21875</v>
+        <v>346324.84375</v>
       </c>
       <c r="I24">
         <v>343380.53125</v>
@@ -4367,10 +4367,10 @@
         <v>172560.25</v>
       </c>
       <c r="G25">
-        <v>346042.46875</v>
+        <v>346081.15625</v>
       </c>
       <c r="H25">
-        <v>346081.15625</v>
+        <v>346323.59375</v>
       </c>
       <c r="I25">
         <v>357470.1875</v>
@@ -4420,10 +4420,10 @@
         <v>199888.46875</v>
       </c>
       <c r="G26">
-        <v>346048.4375</v>
+        <v>346073.78125</v>
       </c>
       <c r="H26">
-        <v>346073.78125</v>
+        <v>346319.625</v>
       </c>
       <c r="I26">
         <v>344638.09375</v>
@@ -4473,10 +4473,10 @@
         <v>247641.5625</v>
       </c>
       <c r="G27">
-        <v>346055.4375</v>
+        <v>346081.0625</v>
       </c>
       <c r="H27">
-        <v>346081.0625</v>
+        <v>346323.0625</v>
       </c>
       <c r="I27">
         <v>430319.28125</v>
@@ -4526,10 +4526,10 @@
         <v>218311.671875</v>
       </c>
       <c r="G28">
-        <v>346057.71875</v>
+        <v>346083.71875</v>
       </c>
       <c r="H28">
-        <v>346083.71875</v>
+        <v>346339.5</v>
       </c>
       <c r="I28">
         <v>283096.28125</v>
@@ -4579,10 +4579,10 @@
         <v>164521.75</v>
       </c>
       <c r="G29">
-        <v>346055.03125</v>
+        <v>346083.0625</v>
       </c>
       <c r="H29">
-        <v>346083.0625</v>
+        <v>346404.09375</v>
       </c>
       <c r="I29">
         <v>380469.875</v>
@@ -4632,10 +4632,10 @@
         <v>215921.96875</v>
       </c>
       <c r="G30">
-        <v>346053.125</v>
+        <v>346082.75</v>
       </c>
       <c r="H30">
-        <v>346082.75</v>
+        <v>346404</v>
       </c>
       <c r="I30">
         <v>400501.8125</v>
@@ -4685,10 +4685,10 @@
         <v>110742.1796875</v>
       </c>
       <c r="G31">
-        <v>346052.03125</v>
+        <v>346078.59375</v>
       </c>
       <c r="H31">
-        <v>346078.59375</v>
+        <v>346395.28125</v>
       </c>
       <c r="I31">
         <v>260248.234375</v>
@@ -4738,10 +4738,10 @@
         <v>195791.75</v>
       </c>
       <c r="G32">
-        <v>346050.5</v>
+        <v>346074.875</v>
       </c>
       <c r="H32">
-        <v>346074.875</v>
+        <v>346403.90625</v>
       </c>
       <c r="I32">
         <v>363715.65625</v>
@@ -4791,10 +4791,10 @@
         <v>239666.78125</v>
       </c>
       <c r="G33">
-        <v>346047.40625</v>
+        <v>346076.46875</v>
       </c>
       <c r="H33">
-        <v>346076.46875</v>
+        <v>346427.9375</v>
       </c>
       <c r="I33">
         <v>309125.96875</v>
@@ -4844,10 +4844,10 @@
         <v>184892.40625</v>
       </c>
       <c r="G34">
-        <v>346046.125</v>
+        <v>346173.5625</v>
       </c>
       <c r="H34">
-        <v>346173.5625</v>
+        <v>346440.25</v>
       </c>
       <c r="I34">
         <v>293895.15625</v>
@@ -4915,7 +4915,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>14257291326.24701</v>
@@ -4941,7 +4941,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>13986373508.47603</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>16667025821.99512</v>
@@ -5019,59 +5019,59 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>16193000551.83748</v>
+        <v>13608558877.40806</v>
       </c>
       <c r="C6">
-        <v>127251.7212136539</v>
+        <v>116655.7280094212</v>
       </c>
       <c r="D6">
-        <v>0.03339546315593937</v>
+        <v>0.03276688187129719</v>
       </c>
       <c r="E6">
-        <v>58033.06510416666</v>
+        <v>58254.34505208334</v>
       </c>
       <c r="F6">
-        <v>0.1166040407584187</v>
+        <v>0.1225565179367704</v>
       </c>
       <c r="G6">
-        <v>26373.671875</v>
+        <v>24239.71875</v>
       </c>
       <c r="H6">
-        <v>0.08144600883811204</v>
+        <v>0.07990673233970172</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>13608558877.40806</v>
+        <v>16248230754.70174</v>
       </c>
       <c r="C7">
-        <v>116655.7280094212</v>
+        <v>127468.5480999205</v>
       </c>
       <c r="D7">
-        <v>0.03276688187129719</v>
+        <v>0.03527405249751486</v>
       </c>
       <c r="E7">
-        <v>58254.34505208334</v>
+        <v>58158.3828125</v>
       </c>
       <c r="F7">
-        <v>0.1225565179367704</v>
+        <v>0.1184377396182555</v>
       </c>
       <c r="G7">
-        <v>24239.71875</v>
+        <v>30078.1875</v>
       </c>
       <c r="H7">
-        <v>0.07990673233970172</v>
+        <v>0.09228823633107745</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>17965548969.52262</v>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>16133971311.44751</v>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>21876359370.14728</v>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>29225901856.13674</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>29869502460.62517</v>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>30289826855.35545</v>
@@ -5227,7 +5227,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>30378625626.8037</v>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>255113569410.4734</v>
@@ -5301,46 +5301,46 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -5366,10 +5366,10 @@
         <v>327124.875</v>
       </c>
       <c r="H2">
-        <v>327112.6875</v>
+        <v>275237.28125</v>
       </c>
       <c r="I2">
-        <v>275237.28125</v>
+        <v>328572.21875</v>
       </c>
       <c r="J2">
         <v>331841.28125</v>
@@ -5419,10 +5419,10 @@
         <v>327125.71875</v>
       </c>
       <c r="H3">
-        <v>327114.0625</v>
+        <v>373303.15625</v>
       </c>
       <c r="I3">
-        <v>373303.15625</v>
+        <v>328573.0625</v>
       </c>
       <c r="J3">
         <v>313247.3125</v>
@@ -5472,10 +5472,10 @@
         <v>327143.46875</v>
       </c>
       <c r="H4">
-        <v>327117.15625</v>
+        <v>283075.6875</v>
       </c>
       <c r="I4">
-        <v>283075.6875</v>
+        <v>327245.625</v>
       </c>
       <c r="J4">
         <v>310320.40625</v>
@@ -5525,10 +5525,10 @@
         <v>327139.90625</v>
       </c>
       <c r="H5">
-        <v>327117.9375</v>
+        <v>293235.5625</v>
       </c>
       <c r="I5">
-        <v>293235.5625</v>
+        <v>324207</v>
       </c>
       <c r="J5">
         <v>314504.53125</v>
@@ -5578,10 +5578,10 @@
         <v>327145.8125</v>
       </c>
       <c r="H6">
-        <v>327116.34375</v>
+        <v>345423.40625</v>
       </c>
       <c r="I6">
-        <v>345423.40625</v>
+        <v>321166.84375</v>
       </c>
       <c r="J6">
         <v>303904.8125</v>
@@ -5631,10 +5631,10 @@
         <v>327141.90625</v>
       </c>
       <c r="H7">
-        <v>327115.4375</v>
+        <v>297383.46875</v>
       </c>
       <c r="I7">
-        <v>297383.46875</v>
+        <v>318127.625</v>
       </c>
       <c r="J7">
         <v>297320.5625</v>
@@ -5684,10 +5684,10 @@
         <v>327235.71875</v>
       </c>
       <c r="H8">
-        <v>327116.65625</v>
+        <v>334559.875</v>
       </c>
       <c r="I8">
-        <v>334559.875</v>
+        <v>319228.65625</v>
       </c>
       <c r="J8">
         <v>314776.4375</v>
@@ -5737,10 +5737,10 @@
         <v>327230.5625</v>
       </c>
       <c r="H9">
-        <v>327118.5</v>
+        <v>330117.78125</v>
       </c>
       <c r="I9">
-        <v>330117.78125</v>
+        <v>329432.53125</v>
       </c>
       <c r="J9">
         <v>362533.09375</v>
@@ -5790,10 +5790,10 @@
         <v>327233.8125</v>
       </c>
       <c r="H10">
-        <v>327120.125</v>
+        <v>283248.28125</v>
       </c>
       <c r="I10">
-        <v>283248.28125</v>
+        <v>339634.34375</v>
       </c>
       <c r="J10">
         <v>373408.90625</v>
@@ -5843,10 +5843,10 @@
         <v>327232.59375</v>
       </c>
       <c r="H11">
-        <v>327126.3125</v>
+        <v>281246.8125</v>
       </c>
       <c r="I11">
-        <v>281246.8125</v>
+        <v>349840.34375</v>
       </c>
       <c r="J11">
         <v>299010.65625</v>
@@ -5896,10 +5896,10 @@
         <v>327231.21875</v>
       </c>
       <c r="H12">
-        <v>327148.75</v>
+        <v>297469.6875</v>
       </c>
       <c r="I12">
-        <v>297469.6875</v>
+        <v>356810.28125</v>
       </c>
       <c r="J12">
         <v>298858.875</v>
@@ -5949,10 +5949,10 @@
         <v>327233.09375</v>
       </c>
       <c r="H13">
-        <v>327163.0625</v>
+        <v>231206.984375</v>
       </c>
       <c r="I13">
-        <v>231206.984375</v>
+        <v>349685.8125</v>
       </c>
       <c r="J13">
         <v>285233.625</v>
@@ -6002,10 +6002,10 @@
         <v>327234.25</v>
       </c>
       <c r="H14">
-        <v>327139.71875</v>
+        <v>213544.46875</v>
       </c>
       <c r="I14">
-        <v>213544.46875</v>
+        <v>342528.78125</v>
       </c>
       <c r="J14">
         <v>276973.15625</v>
@@ -6055,10 +6055,10 @@
         <v>327233.90625</v>
       </c>
       <c r="H15">
-        <v>327120.71875</v>
+        <v>263205.25</v>
       </c>
       <c r="I15">
-        <v>263205.25</v>
+        <v>335375.5625</v>
       </c>
       <c r="J15">
         <v>263396.15625</v>
@@ -6108,10 +6108,10 @@
         <v>327257.625</v>
       </c>
       <c r="H16">
-        <v>327143.5625</v>
+        <v>228576.265625</v>
       </c>
       <c r="I16">
-        <v>228576.265625</v>
+        <v>329904.4375</v>
       </c>
       <c r="J16">
         <v>297400.34375</v>
@@ -6161,10 +6161,10 @@
         <v>327260.78125</v>
       </c>
       <c r="H17">
-        <v>327167.5625</v>
+        <v>224739.515625</v>
       </c>
       <c r="I17">
-        <v>224739.515625</v>
+        <v>349118.9375</v>
       </c>
       <c r="J17">
         <v>311828.65625</v>
@@ -6214,10 +6214,10 @@
         <v>327256.78125</v>
       </c>
       <c r="H18">
-        <v>327169.6875</v>
+        <v>233769.375</v>
       </c>
       <c r="I18">
-        <v>233769.375</v>
+        <v>368314.53125</v>
       </c>
       <c r="J18">
         <v>251710.6875</v>
@@ -6267,10 +6267,10 @@
         <v>327261.3125</v>
       </c>
       <c r="H19">
-        <v>327171.71875</v>
+        <v>231979.96875</v>
       </c>
       <c r="I19">
-        <v>231979.96875</v>
+        <v>387510</v>
       </c>
       <c r="J19">
         <v>268882.84375</v>
@@ -6320,10 +6320,10 @@
         <v>327257.78125</v>
       </c>
       <c r="H20">
-        <v>327171.28125</v>
+        <v>200952.765625</v>
       </c>
       <c r="I20">
-        <v>200952.765625</v>
+        <v>406703.09375</v>
       </c>
       <c r="J20">
         <v>326543.90625</v>
@@ -6373,10 +6373,10 @@
         <v>327257.3125</v>
       </c>
       <c r="H21">
-        <v>327170.21875</v>
+        <v>172184.5</v>
       </c>
       <c r="I21">
-        <v>172184.5</v>
+        <v>424376.40625</v>
       </c>
       <c r="J21">
         <v>232344.8125</v>
@@ -6426,10 +6426,10 @@
         <v>327259.21875</v>
       </c>
       <c r="H22">
-        <v>327172.25</v>
+        <v>228443.390625</v>
       </c>
       <c r="I22">
-        <v>228443.390625</v>
+        <v>441951.3125</v>
       </c>
       <c r="J22">
         <v>353310.90625</v>
@@ -6479,10 +6479,10 @@
         <v>327259.3125</v>
       </c>
       <c r="H23">
-        <v>327174.5</v>
+        <v>253942.75</v>
       </c>
       <c r="I23">
-        <v>253942.75</v>
+        <v>459526.5</v>
       </c>
       <c r="J23">
         <v>270804.78125</v>
@@ -6532,10 +6532,10 @@
         <v>327258.15625</v>
       </c>
       <c r="H24">
-        <v>327174.75</v>
+        <v>192990.1875</v>
       </c>
       <c r="I24">
-        <v>192990.1875</v>
+        <v>477100.78125</v>
       </c>
       <c r="J24">
         <v>299778.1875</v>
@@ -6585,10 +6585,10 @@
         <v>327263.65625</v>
       </c>
       <c r="H25">
-        <v>327173.84375</v>
+        <v>195755.359375</v>
       </c>
       <c r="I25">
-        <v>195755.359375</v>
+        <v>489449.34375</v>
       </c>
       <c r="J25">
         <v>375258.9375</v>
@@ -6638,10 +6638,10 @@
         <v>327257.15625</v>
       </c>
       <c r="H26">
-        <v>327174.90625</v>
+        <v>243601.703125</v>
       </c>
       <c r="I26">
-        <v>243601.703125</v>
+        <v>500592.125</v>
       </c>
       <c r="J26">
         <v>327355.75</v>
@@ -6691,10 +6691,10 @@
         <v>327254</v>
       </c>
       <c r="H27">
-        <v>327176.5625</v>
+        <v>236383.5</v>
       </c>
       <c r="I27">
-        <v>236383.5</v>
+        <v>511734.96875</v>
       </c>
       <c r="J27">
         <v>414368.5</v>
@@ -6744,10 +6744,10 @@
         <v>327265.53125</v>
       </c>
       <c r="H28">
-        <v>327178.3125</v>
+        <v>209529.546875</v>
       </c>
       <c r="I28">
-        <v>209529.546875</v>
+        <v>522878.28125</v>
       </c>
       <c r="J28">
         <v>300376.875</v>
@@ -6797,10 +6797,10 @@
         <v>327258.625</v>
       </c>
       <c r="H29">
-        <v>327179.90625</v>
+        <v>241960.53125</v>
       </c>
       <c r="I29">
-        <v>241960.53125</v>
+        <v>520004.75</v>
       </c>
       <c r="J29">
         <v>365478.1875</v>
@@ -6850,10 +6850,10 @@
         <v>327267.09375</v>
       </c>
       <c r="H30">
-        <v>327178.46875</v>
+        <v>245514.15625</v>
       </c>
       <c r="I30">
-        <v>245514.15625</v>
+        <v>510758.21875</v>
       </c>
       <c r="J30">
         <v>357572.59375</v>
@@ -6903,10 +6903,10 @@
         <v>327261.625</v>
       </c>
       <c r="H31">
-        <v>327175.5625</v>
+        <v>291809.03125</v>
       </c>
       <c r="I31">
-        <v>291809.03125</v>
+        <v>501510.84375</v>
       </c>
       <c r="J31">
         <v>310132.03125</v>
@@ -6956,10 +6956,10 @@
         <v>327258.625</v>
       </c>
       <c r="H32">
-        <v>327174.15625</v>
+        <v>259894.78125</v>
       </c>
       <c r="I32">
-        <v>259894.78125</v>
+        <v>492263.78125</v>
       </c>
       <c r="J32">
         <v>350776.21875</v>
@@ -7009,10 +7009,10 @@
         <v>327263.75</v>
       </c>
       <c r="H33">
-        <v>327173.8125</v>
+        <v>228474.796875</v>
       </c>
       <c r="I33">
-        <v>228474.796875</v>
+        <v>488217.78125</v>
       </c>
       <c r="J33">
         <v>276230.3125</v>
@@ -7062,10 +7062,10 @@
         <v>327263.1875</v>
       </c>
       <c r="H34">
-        <v>327173.6875</v>
+        <v>346005.1875</v>
       </c>
       <c r="I34">
-        <v>346005.1875</v>
+        <v>488217.34375</v>
       </c>
       <c r="J34">
         <v>281029.75</v>
